--- a/Requirements Compliance.xlsx
+++ b/Requirements Compliance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\hsuv_mms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F33085-74A2-4E2D-B033-1401FE50469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9304EC05-9E79-47F3-8336-E108CFECCC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>The Design shall be illustrated with, and linked to, a basic model of a Case Study system.</t>
   </si>
   <si>
-    <t>Fully achieved</t>
-  </si>
-  <si>
     <t>MBSE Language</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>The Design shall be able to show how consistency, or otherwise, between models and the Case Study system version may be verified.</t>
   </si>
   <si>
-    <t>Partially achived</t>
-  </si>
-  <si>
     <t>Verification to CSS Consistency</t>
   </si>
   <si>
@@ -185,6 +179,18 @@
   </si>
   <si>
     <t>Compliance</t>
+  </si>
+  <si>
+    <t>Fully achieved- completed bdd for the vehicle structure and established linkages from SolidWorks drawings.</t>
+  </si>
+  <si>
+    <t>Fully achieved- completed in the process flow section by SysML models.</t>
+  </si>
+  <si>
+    <t>Fully achieved- PowerPoint shows that evidence</t>
+  </si>
+  <si>
+    <t>Partially achived- some design parameters are consistent and proven to be the same in all models (e.g. mass extracted from SolidWorks used in MATLAB to run performance scripts and show the results on SysML)</t>
   </si>
 </sst>
 </file>
@@ -606,14 +612,14 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="118.140625" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +630,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -635,205 +641,205 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements Compliance.xlsx
+++ b/Requirements Compliance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\hsuv_mms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9304EC05-9E79-47F3-8336-E108CFECCC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E48C5E-0AA3-49AE-BCC4-638467874E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,7 +190,7 @@
     <t>Fully achieved- PowerPoint shows that evidence</t>
   </si>
   <si>
-    <t>Partially achived- some design parameters are consistent and proven to be the same in all models (e.g. mass extracted from SolidWorks used in MATLAB to run performance scripts and show the results on SysML)</t>
+    <t xml:space="preserve">Partially achived- some design parameters are consistent and proven to be the same in all models </t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +787,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
